--- a/GolfCoursePar.xlsx
+++ b/GolfCoursePar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Golf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\PGT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA99DE7A-63E7-406A-B8DD-C9B23098C8C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7636F108-E525-462D-BD4F-936D32B05AA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -678,7 +678,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -899,9 +899,7 @@
       <c r="C11" s="10">
         <v>4</v>
       </c>
-      <c r="D11" s="12">
-        <v>3</v>
-      </c>
+      <c r="D11" s="12"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -919,9 +917,7 @@
       <c r="C12" s="11">
         <v>3</v>
       </c>
-      <c r="D12" s="7">
-        <v>3</v>
-      </c>
+      <c r="D12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -939,9 +935,7 @@
       <c r="C13" s="5">
         <v>5</v>
       </c>
-      <c r="D13" s="12">
-        <v>3</v>
-      </c>
+      <c r="D13" s="12"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -959,9 +953,7 @@
       <c r="C14" s="6">
         <v>4</v>
       </c>
-      <c r="D14" s="7">
-        <v>3</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -979,9 +971,7 @@
       <c r="C15" s="10">
         <v>4</v>
       </c>
-      <c r="D15" s="12">
-        <v>3</v>
-      </c>
+      <c r="D15" s="12"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -999,9 +989,7 @@
       <c r="C16" s="11">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
-        <v>3</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1019,9 +1007,7 @@
       <c r="C17" s="10">
         <v>4</v>
       </c>
-      <c r="D17" s="12">
-        <v>3</v>
-      </c>
+      <c r="D17" s="12"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1039,9 +1025,7 @@
       <c r="C18" s="6">
         <v>4</v>
       </c>
-      <c r="D18" s="7">
-        <v>3</v>
-      </c>
+      <c r="D18" s="7"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -1059,9 +1043,7 @@
       <c r="C19" s="14">
         <v>5</v>
       </c>
-      <c r="D19" s="15">
-        <v>3</v>
-      </c>
+      <c r="D19" s="15"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>

--- a/GolfCoursePar.xlsx
+++ b/GolfCoursePar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\PGT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7636F108-E525-462D-BD4F-936D32B05AA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC94A71-17EF-49DC-8D7A-335F458B81B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14625" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>Column 1</t>
+  </si>
   <si>
     <t>Quaker Creek</t>
   </si>
@@ -31,6 +34,12 @@
     <t>Knights Play</t>
   </si>
   <si>
+    <t>Raleigh Golf</t>
+  </si>
+  <si>
+    <t>Zebulon CC</t>
+  </si>
+  <si>
     <t>Hole 1</t>
   </si>
   <si>
@@ -85,14 +94,38 @@
     <t>Hole 18</t>
   </si>
   <si>
-    <t>Holes</t>
+    <t>Hole 19</t>
+  </si>
+  <si>
+    <t>Hole 20</t>
+  </si>
+  <si>
+    <t>Hole 21</t>
+  </si>
+  <si>
+    <t>Hole 22</t>
+  </si>
+  <si>
+    <t>Hole 23</t>
+  </si>
+  <si>
+    <t>Hole 24</t>
+  </si>
+  <si>
+    <t>Hole 25</t>
+  </si>
+  <si>
+    <t>Hole 26</t>
+  </si>
+  <si>
+    <t>Hole 27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -115,18 +148,35 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF356854"/>
+        <bgColor rgb="FF356854"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -140,8 +190,32 @@
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE1CC"/>
+        <bgColor rgb="FFFFE1CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1F1DA"/>
+        <bgColor rgb="FFD1F1DA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -241,6 +315,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFFCE5CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFCE5CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFCE5CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFCE5CD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
@@ -286,6 +375,111 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFE1CC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFE1CC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFE1CC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFE1CC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD1F1DA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD1F1DA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD1F1DA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD1F1DA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD1F1DA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD1F1DA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD1F1DA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFE1CC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFE1CC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFE1CC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFFCE5CD"/>
       </left>
       <right style="thin">
@@ -295,64 +489,19 @@
         <color rgb="FFFCE5CD"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFCE5CD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD9EAD3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9EAD3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD9EAD3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FF284E3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -363,12 +512,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -377,47 +529,157 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFCE5CD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFCE5CD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFCE5CD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFCE5CD"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -445,9 +707,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -462,12 +724,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Scorecards" displayName="Scorecards" ref="A1:D19">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Holes"/>
-    <tableColumn id="5" xr3:uid="{9483E653-ED01-4A66-9DF5-98B7A4428C27}" name="Brevofield"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quaker Creek"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Knights Play"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Scorecards" displayName="Scorecards" ref="A1:F28">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column 1"/>
+    <tableColumn id="7" xr3:uid="{ABA7E823-9417-4CEF-8AD0-7409201558D1}" name="Knights Play" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Brevofield"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Quaker Creek" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Raleigh Golf"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zebulon CC"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -674,55 +938,66 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8"/>
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="23">
+        <v>3</v>
+      </c>
+      <c r="C2" s="17">
+        <v>4</v>
+      </c>
+      <c r="D2" s="22">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4</v>
+      </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -731,18 +1006,23 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="11">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10">
-        <v>4</v>
-      </c>
-      <c r="D3" s="12">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B3" s="23">
+        <v>3</v>
+      </c>
+      <c r="C3" s="23">
+        <v>3</v>
+      </c>
+      <c r="D3" s="20">
+        <v>4</v>
+      </c>
+      <c r="E3" s="10">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11">
+        <v>4</v>
+      </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -750,19 +1030,24 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7">
-        <v>3</v>
-      </c>
-      <c r="F4" s="8"/>
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="23">
+        <v>3</v>
+      </c>
+      <c r="C4" s="22">
+        <v>5</v>
+      </c>
+      <c r="D4" s="23">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12">
+        <v>3</v>
+      </c>
+      <c r="F4" s="13">
+        <v>5</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -771,18 +1056,23 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="10">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10">
-        <v>4</v>
-      </c>
-      <c r="D5" s="12">
-        <v>3</v>
-      </c>
-      <c r="F5" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B5" s="23">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20">
+        <v>4</v>
+      </c>
+      <c r="D5" s="20">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14">
+        <v>5</v>
+      </c>
+      <c r="F5" s="15">
+        <v>3</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -790,19 +1080,24 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7">
-        <v>3</v>
-      </c>
-      <c r="F6" s="8"/>
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="23">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17">
+        <v>4</v>
+      </c>
+      <c r="D6" s="17">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -811,18 +1106,23 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="10">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10">
-        <v>4</v>
-      </c>
-      <c r="D7" s="12">
-        <v>3</v>
-      </c>
-      <c r="F7" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B7" s="23">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20">
+        <v>4</v>
+      </c>
+      <c r="D7" s="20">
+        <v>4</v>
+      </c>
+      <c r="E7" s="14">
+        <v>5</v>
+      </c>
+      <c r="F7" s="13">
+        <v>5</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -830,19 +1130,24 @@
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7">
-        <v>3</v>
-      </c>
-      <c r="F8" s="8"/>
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="23">
+        <v>3</v>
+      </c>
+      <c r="C8" s="17">
+        <v>4</v>
+      </c>
+      <c r="D8" s="17">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -851,18 +1156,23 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11">
-        <v>3</v>
-      </c>
-      <c r="D9" s="12">
-        <v>3</v>
-      </c>
-      <c r="F9" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B9" s="23">
+        <v>3</v>
+      </c>
+      <c r="C9" s="22">
+        <v>5</v>
+      </c>
+      <c r="D9" s="23">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11">
+        <v>4</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -870,19 +1180,24 @@
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="11">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3</v>
-      </c>
-      <c r="F10" s="8"/>
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="23">
+        <v>3</v>
+      </c>
+      <c r="C10" s="23">
+        <v>3</v>
+      </c>
+      <c r="D10" s="22">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4</v>
+      </c>
+      <c r="F10" s="15">
+        <v>3</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -891,16 +1206,23 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="10">
-        <v>4</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="F11" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="B11" s="23">
+        <v>3</v>
+      </c>
+      <c r="C11" s="23">
+        <v>3</v>
+      </c>
+      <c r="D11" s="20">
+        <v>4</v>
+      </c>
+      <c r="E11" s="10">
+        <v>4</v>
+      </c>
+      <c r="F11" s="13">
+        <v>5</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -908,17 +1230,24 @@
       <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6">
-        <v>4</v>
-      </c>
-      <c r="C12" s="11">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="23">
+        <v>3</v>
+      </c>
+      <c r="C12" s="17">
+        <v>4</v>
+      </c>
+      <c r="D12" s="23">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4</v>
+      </c>
+      <c r="F12" s="13">
+        <v>5</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -927,16 +1256,23 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5">
-        <v>5</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="F13" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="B13" s="23">
+        <v>3</v>
+      </c>
+      <c r="C13" s="22">
+        <v>5</v>
+      </c>
+      <c r="D13" s="22">
+        <v>5</v>
+      </c>
+      <c r="E13" s="12">
+        <v>3</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -944,17 +1280,24 @@
       <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6">
-        <v>4</v>
-      </c>
-      <c r="C14" s="6">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="F14" s="8"/>
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="23">
+        <v>3</v>
+      </c>
+      <c r="C14" s="17">
+        <v>4</v>
+      </c>
+      <c r="D14" s="17">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4</v>
+      </c>
+      <c r="F14" s="15">
+        <v>3</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -963,16 +1306,23 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="10">
-        <v>4</v>
-      </c>
-      <c r="C15" s="10">
-        <v>4</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="F15" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="B15" s="23">
+        <v>3</v>
+      </c>
+      <c r="C15" s="20">
+        <v>4</v>
+      </c>
+      <c r="D15" s="20">
+        <v>4</v>
+      </c>
+      <c r="E15" s="14">
+        <v>5</v>
+      </c>
+      <c r="F15" s="11">
+        <v>4</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -980,17 +1330,24 @@
       <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6">
-        <v>4</v>
-      </c>
-      <c r="C16" s="11">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="F16" s="8"/>
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="23">
+        <v>3</v>
+      </c>
+      <c r="C16" s="17">
+        <v>4</v>
+      </c>
+      <c r="D16" s="23">
+        <v>3</v>
+      </c>
+      <c r="E16" s="12">
+        <v>3</v>
+      </c>
+      <c r="F16" s="15">
+        <v>3</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -999,16 +1356,23 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="11">
-        <v>3</v>
-      </c>
-      <c r="C17" s="10">
-        <v>4</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="F17" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="B17" s="23">
+        <v>3</v>
+      </c>
+      <c r="C17" s="23">
+        <v>3</v>
+      </c>
+      <c r="D17" s="20">
+        <v>4</v>
+      </c>
+      <c r="E17" s="14">
+        <v>5</v>
+      </c>
+      <c r="F17" s="11">
+        <v>4</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1016,17 +1380,24 @@
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="6">
-        <v>4</v>
-      </c>
-      <c r="C18" s="6">
-        <v>4</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="23">
+        <v>3</v>
+      </c>
+      <c r="C18" s="17">
+        <v>4</v>
+      </c>
+      <c r="D18" s="17">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4</v>
+      </c>
+      <c r="F18" s="7">
+        <v>4</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1034,34 +1405,166 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="14">
-        <v>5</v>
-      </c>
-      <c r="C19" s="14">
-        <v>5</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="23">
+        <v>3</v>
+      </c>
+      <c r="C19" s="22">
+        <v>5</v>
+      </c>
+      <c r="D19" s="22">
+        <v>5</v>
+      </c>
+      <c r="E19" s="10">
+        <v>4</v>
+      </c>
+      <c r="F19" s="11">
+        <v>4</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
     </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="23">
+        <v>3</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17">
+        <v>4</v>
+      </c>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="23">
+        <v>3</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20">
+        <v>4</v>
+      </c>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="23">
+        <v>3</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="22">
+        <v>5</v>
+      </c>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="23">
+        <v>3</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20">
+        <v>4</v>
+      </c>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="23">
+        <v>3</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="23">
+        <v>3</v>
+      </c>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="23">
+        <v>3</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20">
+        <v>4</v>
+      </c>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="23">
+        <v>3</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17">
+        <v>4</v>
+      </c>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="23">
+        <v>3</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="23">
+        <v>3</v>
+      </c>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="26">
+        <v>3</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="27">
+        <v>4</v>
+      </c>
+      <c r="F28" s="28"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A19" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B2:D19" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A28" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B2:D28" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>AND(ISNUMBER(B2),(NOT(OR(NOT(ISERROR(DATEVALUE(B2))), AND(ISNUMBER(B2), LEFT(CELL("format", B2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>